--- a/biology/Botanique/Dominique_Gauzin-Müller/Dominique_Gauzin-Müller.xlsx
+++ b/biology/Botanique/Dominique_Gauzin-Müller/Dominique_Gauzin-Müller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dominique_Gauzin-M%C3%BCller</t>
+          <t>Dominique_Gauzin-Müller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominique Gauzin-Müller, née en 1960 à Vincennes, est une architecte et universitaire  française, spécialiste de l'architecture écologique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dominique_Gauzin-M%C3%BCller</t>
+          <t>Dominique_Gauzin-Müller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Auteur de livres sur la construction en bois, l'architecture écologique et l'aménagement durable des territoires, elle collabore avec plusieurs maisons d'éditions et rédige des essais dans des ouvrages collectifs. Depuis le début des années 1980, Dominique Gauzin-Müller écrit dans plusieurs revues d'architecture européennes : D'Architectures, Techniques et Architecture, Maisons à vivre, Séquences Bois, Architecture intérieure créé, Le Moniteur des travaux publics et du bâtiment, L'Architettura naturale, Deutsche Bauzeitung, Detail, etc. Elle est rédactrice en chef du magazine EcologiK, fondé en 2007, et dédié à l'architecture et à l'urbanisme « éco-responsables ». Elle vit à Stuttgart.
 Ses études à l’École d'architecture Paris-Tolbiac se sont passées dans les ateliers de Roland Schweitzer, spécialiste français de l'architecture en bois, et de Marion Tournon-Branly. Elle a obtenu son diplôme en 1984 puis un certificat d’études approfondies sur la construction en bois de la même école en 1985.
-Dominique Gauzin-Müller a travaillé quelques années comme architecte, avant de se consacrer essentiellement à l'écriture et à l'enseignement. Elle a donné des cours à l'université de Stuttgart entre 1988 et 1989, puis publié Le bois dans la construction en 1990[1]. Entre 1998 et 2004, Dominique Gauzin-Müller a assuré l'édition du livre Jean Prouvé : œuvre complète en trois volumes par Peter Sulzer. Depuis 1994, elle a organisé plus de quarante voyages d'étude pour des professionnels du bâtiment français en Allemagne et dans le Vorarlberg, notamment pour le conseil national de l’ordre des architectes français et pour le comité national pour le développement du bois (CNDB). En 1997, elle a publié, en allemand, Behnisch &amp; Partner- 50 Jahre Architektur sur l'architecte allemand Günter Behnisch, un ouvrage qui reçut la même année un prix attribué aux cinquante « plus beaux livres d’Allemagne ». En 1999, elle a publié Construire avec le bois, ouvrage pour lequel elle a reçu le Prix Henri Le Même remis par l’Académie d’architecture. La même année, elle a participé au concours pour le collège de Mirecourt avec l'agence Jockers de Stuttgart. Dominique Gauzin-Müller a participé comme co-conceptrice avec Joel Gimbert, architecte à Pornichet, au projet de centre de valorisation énergétique du parc d’activités déchets de l’entreprise Séché-Eco industries à Changé, en Mayenne.
-L’Académie d'architecture a remis en 2007 à Dominique Gauzin-Müller le prix Dejean pour des études et recherches sur l’application des principes du développement durable à l’architecture et l’urbanisme[2].
+Dominique Gauzin-Müller a travaillé quelques années comme architecte, avant de se consacrer essentiellement à l'écriture et à l'enseignement. Elle a donné des cours à l'université de Stuttgart entre 1988 et 1989, puis publié Le bois dans la construction en 1990. Entre 1998 et 2004, Dominique Gauzin-Müller a assuré l'édition du livre Jean Prouvé : œuvre complète en trois volumes par Peter Sulzer. Depuis 1994, elle a organisé plus de quarante voyages d'étude pour des professionnels du bâtiment français en Allemagne et dans le Vorarlberg, notamment pour le conseil national de l’ordre des architectes français et pour le comité national pour le développement du bois (CNDB). En 1997, elle a publié, en allemand, Behnisch &amp; Partner- 50 Jahre Architektur sur l'architecte allemand Günter Behnisch, un ouvrage qui reçut la même année un prix attribué aux cinquante « plus beaux livres d’Allemagne ». En 1999, elle a publié Construire avec le bois, ouvrage pour lequel elle a reçu le Prix Henri Le Même remis par l’Académie d’architecture. La même année, elle a participé au concours pour le collège de Mirecourt avec l'agence Jockers de Stuttgart. Dominique Gauzin-Müller a participé comme co-conceptrice avec Joel Gimbert, architecte à Pornichet, au projet de centre de valorisation énergétique du parc d’activités déchets de l’entreprise Séché-Eco industries à Changé, en Mayenne.
+L’Académie d'architecture a remis en 2007 à Dominique Gauzin-Müller le prix Dejean pour des études et recherches sur l’application des principes du développement durable à l’architecture et l’urbanisme.
 Parallèlement à ses ouvrages personnels, Dominique Gauzin-Müller a publié des essais dans divers ouvrages collectifs.
-Enseignement
-Depuis 1999, Dominique Gauzin-Müller est intervenue dans plusieurs universités européennes, dont celles de Louvain-la-Neuve et à l'ISA Saint-Luc de Wallonie à Tournai (Belgique), Genève (Suisse), Vienne (Autriche), La Corogne (Espagne), Paris-La Villette, Épinal, Rennes, Nancy, Strasbourg. Entre 2004 et 2007, elle est maître-assistante associée à l’École nationale supérieure d'architecture de Nancy dans le domaine des « cultures constructives » où elle participe à un séminaire intitulé « De l’urbanisme durable à l’architecture écologique » et dirige plusieurs ateliers de projet d'habitat écoresponsable. Depuis octobre 2007, elle est maître-assistante associée à l’École nationale supérieure d'architecture de Strasbourg.
-Engagement
-En 2018, elle est co-autrice, avec Philippe Madec, également architecte et Alain Bornarel, ingénieur, du manifeste La Frugalité heureuse et créative[3], et déclare qu'on pourrait construire autrement pour réduire par cinq les consommations d'énergie[4].
 </t>
         </is>
       </c>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dominique_Gauzin-M%C3%BCller</t>
+          <t>Dominique_Gauzin-Müller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +557,130 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1999, Dominique Gauzin-Müller est intervenue dans plusieurs universités européennes, dont celles de Louvain-la-Neuve et à l'ISA Saint-Luc de Wallonie à Tournai (Belgique), Genève (Suisse), Vienne (Autriche), La Corogne (Espagne), Paris-La Villette, Épinal, Rennes, Nancy, Strasbourg. Entre 2004 et 2007, elle est maître-assistante associée à l’École nationale supérieure d'architecture de Nancy dans le domaine des « cultures constructives » où elle participe à un séminaire intitulé « De l’urbanisme durable à l’architecture écologique » et dirige plusieurs ateliers de projet d'habitat écoresponsable. Depuis octobre 2007, elle est maître-assistante associée à l’École nationale supérieure d'architecture de Strasbourg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dominique_Gauzin-Müller</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Gauzin-M%C3%BCller</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, elle est co-autrice, avec Philippe Madec, également architecte et Alain Bornarel, ingénieur, du manifeste La Frugalité heureuse et créative, et déclare qu'on pourrait construire autrement pour réduire par cinq les consommations d'énergie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dominique_Gauzin-Müller</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Gauzin-M%C3%BCller</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions et jury</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Distinction
-L’Académie d'architecture a remis en 2007 à Dominique Gauzin-Müller le prix Dejean pour des études et recherches sur l’application des principes du développement durable à l’architecture et l’urbanisme[2].
-Elle reçoit le titre de docteur honoris causa de l'université de Liège en 2023[5].
-Jury
-Elle est jury de nombreux prix dont le prix national de construction bois en 2021[6].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Distinction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Académie d'architecture a remis en 2007 à Dominique Gauzin-Müller le prix Dejean pour des études et recherches sur l’application des principes du développement durable à l’architecture et l’urbanisme.
+Elle reçoit le titre de docteur honoris causa de l'université de Liège en 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dominique_Gauzin-Müller</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dominique_Gauzin-M%C3%BCller</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions et jury</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jury</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est jury de nombreux prix dont le prix national de construction bois en 2021.
 </t>
         </is>
       </c>
